--- a/data/que_ouvri.xlsx
+++ b/data/que_ouvri.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellap\VirtualBox VMs\SciViews Box 2019\shared\projects\Ethologie-bourdons\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5FF238F-726F-4463-9BB3-1BDD7D2317C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3428D2BE-1F87-4EA4-BF0C-C80F13E39EA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9E1D5568-F852-41BF-BA82-D0591690CE77}"/>
   </bookViews>
@@ -36,15 +36,6 @@
     <t xml:space="preserve">Individu </t>
   </si>
   <si>
-    <t>weight</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>size_cr</t>
-  </si>
-  <si>
     <t>sexe</t>
   </si>
   <si>
@@ -52,6 +43,15 @@
   </si>
   <si>
     <t>M</t>
+  </si>
+  <si>
+    <t>taille</t>
+  </si>
+  <si>
+    <t>taille_cr</t>
+  </si>
+  <si>
+    <t>masse</t>
   </si>
 </sst>
 </file>
@@ -405,8 +405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2A181C9-B840-411B-91AF-E0B823C0BAED}">
   <dimension ref="A1:E175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="B174" sqref="B174"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="D174" sqref="D174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -416,16 +416,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -442,7 +442,7 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -450,7 +450,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.42</v>
+        <v>0.3</v>
       </c>
       <c r="C3">
         <v>15</v>
@@ -459,7 +459,7 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -473,10 +473,10 @@
         <v>11</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -493,7 +493,7 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -510,7 +510,7 @@
         <v>3.1</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -527,7 +527,7 @@
         <v>3.2</v>
       </c>
       <c r="E7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -544,7 +544,7 @@
         <v>3.5</v>
       </c>
       <c r="E8" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -561,7 +561,7 @@
         <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -578,7 +578,7 @@
         <v>3.2</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -595,7 +595,7 @@
         <v>4</v>
       </c>
       <c r="E11" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -612,7 +612,7 @@
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -629,7 +629,7 @@
         <v>3.8</v>
       </c>
       <c r="E13" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -646,7 +646,7 @@
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -663,7 +663,7 @@
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -680,7 +680,7 @@
         <v>3.5</v>
       </c>
       <c r="E16" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -697,7 +697,7 @@
         <v>4</v>
       </c>
       <c r="E17" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -714,7 +714,7 @@
         <v>3.2</v>
       </c>
       <c r="E18" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -731,7 +731,7 @@
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -748,7 +748,7 @@
         <v>3.1</v>
       </c>
       <c r="E20" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -765,7 +765,7 @@
         <v>3.4</v>
       </c>
       <c r="E21" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -782,7 +782,7 @@
         <v>3.5</v>
       </c>
       <c r="E22" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -799,7 +799,7 @@
         <v>3.5</v>
       </c>
       <c r="E23" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -816,7 +816,7 @@
         <v>3.7</v>
       </c>
       <c r="E24" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -833,7 +833,7 @@
         <v>4</v>
       </c>
       <c r="E25" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -850,7 +850,7 @@
         <v>3.1</v>
       </c>
       <c r="E26" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -867,7 +867,7 @@
         <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -884,7 +884,7 @@
         <v>3.6</v>
       </c>
       <c r="E28" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -901,7 +901,7 @@
         <v>3.4</v>
       </c>
       <c r="E29" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -918,7 +918,7 @@
         <v>3.5</v>
       </c>
       <c r="E30" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -935,7 +935,7 @@
         <v>3.2</v>
       </c>
       <c r="E31" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -952,7 +952,7 @@
         <v>3.6</v>
       </c>
       <c r="E32" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -969,7 +969,7 @@
         <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -986,7 +986,7 @@
         <v>3.5</v>
       </c>
       <c r="E34" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -1003,7 +1003,7 @@
         <v>4</v>
       </c>
       <c r="E35" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -1020,7 +1020,7 @@
         <v>3.5</v>
       </c>
       <c r="E36" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -1037,7 +1037,7 @@
         <v>3.8</v>
       </c>
       <c r="E37" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -1054,7 +1054,7 @@
         <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -1071,7 +1071,7 @@
         <v>3.1</v>
       </c>
       <c r="E39" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -1088,7 +1088,7 @@
         <v>3.2</v>
       </c>
       <c r="E40" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -1105,7 +1105,7 @@
         <v>3</v>
       </c>
       <c r="E41" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -1122,7 +1122,7 @@
         <v>3.3</v>
       </c>
       <c r="E42" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -1139,7 +1139,7 @@
         <v>3.5</v>
       </c>
       <c r="E43" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -1156,7 +1156,7 @@
         <v>3</v>
       </c>
       <c r="E44" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -1173,7 +1173,7 @@
         <v>4.2</v>
       </c>
       <c r="E45" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -1190,7 +1190,7 @@
         <v>3.5</v>
       </c>
       <c r="E46" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -1207,7 +1207,7 @@
         <v>3</v>
       </c>
       <c r="E47" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -1224,7 +1224,7 @@
         <v>3.2</v>
       </c>
       <c r="E48" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -1241,7 +1241,7 @@
         <v>3</v>
       </c>
       <c r="E49" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -1258,7 +1258,7 @@
         <v>4</v>
       </c>
       <c r="E50" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -1275,7 +1275,7 @@
         <v>3.3</v>
       </c>
       <c r="E51" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -1292,7 +1292,7 @@
         <v>3.6</v>
       </c>
       <c r="E52" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -1309,7 +1309,7 @@
         <v>3.5</v>
       </c>
       <c r="E53" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -1326,7 +1326,7 @@
         <v>3.6</v>
       </c>
       <c r="E54" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -1343,7 +1343,7 @@
         <v>3.5</v>
       </c>
       <c r="E55" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -1360,7 +1360,7 @@
         <v>3.1</v>
       </c>
       <c r="E56" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -1377,7 +1377,7 @@
         <v>3.7</v>
       </c>
       <c r="E57" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -1394,7 +1394,7 @@
         <v>3.3</v>
       </c>
       <c r="E58" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -1411,7 +1411,7 @@
         <v>3</v>
       </c>
       <c r="E59" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -1428,7 +1428,7 @@
         <v>3.5</v>
       </c>
       <c r="E60" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -1445,7 +1445,7 @@
         <v>4</v>
       </c>
       <c r="E61" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -1462,7 +1462,7 @@
         <v>3.5</v>
       </c>
       <c r="E62" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -1479,7 +1479,7 @@
         <v>3.1</v>
       </c>
       <c r="E63" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -1496,7 +1496,7 @@
         <v>3.5</v>
       </c>
       <c r="E64" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -1513,7 +1513,7 @@
         <v>3</v>
       </c>
       <c r="E65" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -1530,7 +1530,7 @@
         <v>3.5</v>
       </c>
       <c r="E66" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
@@ -1547,7 +1547,7 @@
         <v>3</v>
       </c>
       <c r="E67" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -1564,7 +1564,7 @@
         <v>3.4</v>
       </c>
       <c r="E68" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
@@ -1581,7 +1581,7 @@
         <v>3.4</v>
       </c>
       <c r="E69" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
@@ -1598,7 +1598,7 @@
         <v>3</v>
       </c>
       <c r="E70" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -1615,7 +1615,7 @@
         <v>3</v>
       </c>
       <c r="E71" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
@@ -1632,7 +1632,7 @@
         <v>3</v>
       </c>
       <c r="E72" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
@@ -1649,7 +1649,7 @@
         <v>3.2</v>
       </c>
       <c r="E73" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
@@ -1666,7 +1666,7 @@
         <v>3.8</v>
       </c>
       <c r="E74" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
@@ -1683,7 +1683,7 @@
         <v>3.2</v>
       </c>
       <c r="E75" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
@@ -1700,7 +1700,7 @@
         <v>3</v>
       </c>
       <c r="E76" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
@@ -1717,7 +1717,7 @@
         <v>3.1</v>
       </c>
       <c r="E77" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
@@ -1734,7 +1734,7 @@
         <v>3</v>
       </c>
       <c r="E78" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
@@ -1751,7 +1751,7 @@
         <v>3</v>
       </c>
       <c r="E79" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
@@ -1768,7 +1768,7 @@
         <v>3</v>
       </c>
       <c r="E80" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
@@ -1785,7 +1785,7 @@
         <v>3</v>
       </c>
       <c r="E81" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
@@ -1802,7 +1802,7 @@
         <v>3.5</v>
       </c>
       <c r="E82" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
@@ -1819,7 +1819,7 @@
         <v>4</v>
       </c>
       <c r="E83" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
@@ -1836,7 +1836,7 @@
         <v>3.1</v>
       </c>
       <c r="E84" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
@@ -1853,7 +1853,7 @@
         <v>3.3</v>
       </c>
       <c r="E85" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
@@ -1870,7 +1870,7 @@
         <v>3.5</v>
       </c>
       <c r="E86" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
@@ -1887,7 +1887,7 @@
         <v>3</v>
       </c>
       <c r="E87" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
@@ -1904,7 +1904,7 @@
         <v>3.3</v>
       </c>
       <c r="E88" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
@@ -1921,7 +1921,7 @@
         <v>3.5</v>
       </c>
       <c r="E89" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
@@ -1938,7 +1938,7 @@
         <v>4</v>
       </c>
       <c r="E90" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
@@ -1955,7 +1955,7 @@
         <v>4</v>
       </c>
       <c r="E91" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
@@ -1972,7 +1972,7 @@
         <v>2.8</v>
       </c>
       <c r="E92" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
@@ -1989,7 +1989,7 @@
         <v>3.6</v>
       </c>
       <c r="E93" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
@@ -2006,7 +2006,7 @@
         <v>3.5</v>
       </c>
       <c r="E94" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
@@ -2023,7 +2023,7 @@
         <v>3</v>
       </c>
       <c r="E95" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
@@ -2040,7 +2040,7 @@
         <v>3.7</v>
       </c>
       <c r="E96" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
@@ -2057,7 +2057,7 @@
         <v>2.9</v>
       </c>
       <c r="E97" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
@@ -2074,7 +2074,7 @@
         <v>3.8</v>
       </c>
       <c r="E98" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
@@ -2091,7 +2091,7 @@
         <v>3.4</v>
       </c>
       <c r="E99" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
@@ -2108,7 +2108,7 @@
         <v>3.5</v>
       </c>
       <c r="E100" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
@@ -2125,7 +2125,7 @@
         <v>2.9</v>
       </c>
       <c r="E101" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
@@ -2142,7 +2142,7 @@
         <v>3.6</v>
       </c>
       <c r="E102" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
@@ -2159,7 +2159,7 @@
         <v>3</v>
       </c>
       <c r="E103" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
@@ -2176,7 +2176,7 @@
         <v>3.3</v>
       </c>
       <c r="E104" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
@@ -2193,7 +2193,7 @@
         <v>3</v>
       </c>
       <c r="E105" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
@@ -2210,7 +2210,7 @@
         <v>3.6</v>
       </c>
       <c r="E106" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
@@ -2227,7 +2227,7 @@
         <v>3.1</v>
       </c>
       <c r="E107" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
@@ -2244,7 +2244,7 @@
         <v>3.5</v>
       </c>
       <c r="E108" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
@@ -2261,7 +2261,7 @@
         <v>3.3</v>
       </c>
       <c r="E109" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
@@ -2278,7 +2278,7 @@
         <v>3.2</v>
       </c>
       <c r="E110" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
@@ -2295,7 +2295,7 @@
         <v>3</v>
       </c>
       <c r="E111" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
@@ -2312,7 +2312,7 @@
         <v>3.1</v>
       </c>
       <c r="E112" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
@@ -2329,7 +2329,7 @@
         <v>3.6</v>
       </c>
       <c r="E113" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
@@ -2346,7 +2346,7 @@
         <v>3.2</v>
       </c>
       <c r="E114" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
@@ -2363,7 +2363,7 @@
         <v>3</v>
       </c>
       <c r="E115" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
@@ -2380,7 +2380,7 @@
         <v>3.2</v>
       </c>
       <c r="E116" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
@@ -2397,7 +2397,7 @@
         <v>3</v>
       </c>
       <c r="E117" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
@@ -2414,7 +2414,7 @@
         <v>3</v>
       </c>
       <c r="E118" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
@@ -2431,7 +2431,7 @@
         <v>3.1</v>
       </c>
       <c r="E119" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
@@ -2448,7 +2448,7 @@
         <v>3.2</v>
       </c>
       <c r="E120" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
@@ -2465,7 +2465,7 @@
         <v>2.6</v>
       </c>
       <c r="E121" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
@@ -2482,7 +2482,7 @@
         <v>3.1</v>
       </c>
       <c r="E122" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
@@ -2499,7 +2499,7 @@
         <v>3.5</v>
       </c>
       <c r="E123" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
@@ -2516,7 +2516,7 @@
         <v>3.4</v>
       </c>
       <c r="E124" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
@@ -2533,7 +2533,7 @@
         <v>3.2</v>
       </c>
       <c r="E125" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
@@ -2550,7 +2550,7 @@
         <v>3</v>
       </c>
       <c r="E126" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
@@ -2567,7 +2567,7 @@
         <v>3.5</v>
       </c>
       <c r="E127" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
@@ -2584,7 +2584,7 @@
         <v>3</v>
       </c>
       <c r="E128" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
@@ -2601,7 +2601,7 @@
         <v>3.4</v>
       </c>
       <c r="E129" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
@@ -2618,7 +2618,7 @@
         <v>3</v>
       </c>
       <c r="E130" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
@@ -2635,7 +2635,7 @@
         <v>3</v>
       </c>
       <c r="E131" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
@@ -2652,7 +2652,7 @@
         <v>3.7</v>
       </c>
       <c r="E132" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
@@ -2669,7 +2669,7 @@
         <v>3</v>
       </c>
       <c r="E133" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
@@ -2686,7 +2686,7 @@
         <v>3.5</v>
       </c>
       <c r="E134" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
@@ -2703,7 +2703,7 @@
         <v>3.1</v>
       </c>
       <c r="E135" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
@@ -2720,7 +2720,7 @@
         <v>3.2</v>
       </c>
       <c r="E136" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
@@ -2737,7 +2737,7 @@
         <v>3.2</v>
       </c>
       <c r="E137" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
@@ -2754,7 +2754,7 @@
         <v>3.5</v>
       </c>
       <c r="E138" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
@@ -2771,7 +2771,7 @@
         <v>3.6</v>
       </c>
       <c r="E139" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
@@ -2788,7 +2788,7 @@
         <v>3</v>
       </c>
       <c r="E140" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
@@ -2805,7 +2805,7 @@
         <v>2.9</v>
       </c>
       <c r="E141" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
@@ -2822,7 +2822,7 @@
         <v>3.2</v>
       </c>
       <c r="E142" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
@@ -2839,7 +2839,7 @@
         <v>3.1</v>
       </c>
       <c r="E143" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
@@ -2856,7 +2856,7 @@
         <v>2.9</v>
       </c>
       <c r="E144" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
@@ -2873,7 +2873,7 @@
         <v>3.1</v>
       </c>
       <c r="E145" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
@@ -2890,7 +2890,7 @@
         <v>3</v>
       </c>
       <c r="E146" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
@@ -2907,7 +2907,7 @@
         <v>3.5</v>
       </c>
       <c r="E147" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
@@ -2924,7 +2924,7 @@
         <v>3</v>
       </c>
       <c r="E148" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
@@ -2941,7 +2941,7 @@
         <v>3</v>
       </c>
       <c r="E149" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
@@ -2958,7 +2958,7 @@
         <v>3.5</v>
       </c>
       <c r="E150" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
@@ -2975,7 +2975,7 @@
         <v>4</v>
       </c>
       <c r="E151" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
@@ -2992,7 +2992,7 @@
         <v>3.5</v>
       </c>
       <c r="E152" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
@@ -3009,7 +3009,7 @@
         <v>3.2</v>
       </c>
       <c r="E153" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
@@ -3026,7 +3026,7 @@
         <v>3.5</v>
       </c>
       <c r="E154" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
@@ -3043,7 +3043,7 @@
         <v>3.1</v>
       </c>
       <c r="E155" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
@@ -3060,7 +3060,7 @@
         <v>3</v>
       </c>
       <c r="E156" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
@@ -3077,7 +3077,7 @@
         <v>3.3</v>
       </c>
       <c r="E157" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
@@ -3094,7 +3094,7 @@
         <v>3.5</v>
       </c>
       <c r="E158" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
@@ -3111,7 +3111,7 @@
         <v>3.2</v>
       </c>
       <c r="E159" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
@@ -3128,7 +3128,7 @@
         <v>3.6</v>
       </c>
       <c r="E160" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
@@ -3145,7 +3145,7 @@
         <v>3</v>
       </c>
       <c r="E161" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
@@ -3162,7 +3162,7 @@
         <v>3.7</v>
       </c>
       <c r="E162" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
@@ -3179,7 +3179,7 @@
         <v>3.5</v>
       </c>
       <c r="E163" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
@@ -3196,7 +3196,7 @@
         <v>3.2</v>
       </c>
       <c r="E164" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
@@ -3213,7 +3213,7 @@
         <v>3.4</v>
       </c>
       <c r="E165" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
@@ -3230,7 +3230,7 @@
         <v>3.3</v>
       </c>
       <c r="E166" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
@@ -3247,7 +3247,7 @@
         <v>2.8</v>
       </c>
       <c r="E167" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
@@ -3264,7 +3264,7 @@
         <v>3.5</v>
       </c>
       <c r="E168" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
@@ -3281,7 +3281,7 @@
         <v>3.5</v>
       </c>
       <c r="E169" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
@@ -3298,7 +3298,7 @@
         <v>3.5</v>
       </c>
       <c r="E170" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
@@ -3312,10 +3312,10 @@
         <v>16</v>
       </c>
       <c r="D171">
-        <v>0.28000000000000003</v>
+        <v>3.3</v>
       </c>
       <c r="E171" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
@@ -3332,7 +3332,7 @@
         <v>3.3</v>
       </c>
       <c r="E172" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
@@ -3349,7 +3349,7 @@
         <v>2.7</v>
       </c>
       <c r="E173" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
@@ -3363,10 +3363,10 @@
         <v>15</v>
       </c>
       <c r="D174">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="E174" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
@@ -3383,7 +3383,7 @@
         <v>3</v>
       </c>
       <c r="E175" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/data/que_ouvri.xlsx
+++ b/data/que_ouvri.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellap\VirtualBox VMs\SciViews Box 2019\shared\projects\Ethologie-bourdons\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3428D2BE-1F87-4EA4-BF0C-C80F13E39EA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D8B6DC-B7C0-446F-BE47-596A4386AC7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9E1D5568-F852-41BF-BA82-D0591690CE77}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="7">
   <si>
     <t xml:space="preserve">Individu </t>
   </si>
@@ -405,8 +405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2A181C9-B840-411B-91AF-E0B823C0BAED}">
   <dimension ref="A1:E175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="D174" sqref="D174"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A90" sqref="A90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1924,23 +1924,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90">
-        <v>90</v>
-      </c>
-      <c r="B90">
-        <v>0.35</v>
-      </c>
-      <c r="C90">
-        <v>17</v>
-      </c>
-      <c r="D90">
-        <v>4</v>
-      </c>
-      <c r="E90" t="s">
-        <v>3</v>
-      </c>
-    </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>91</v>
